--- a/甘特圖.xlsx
+++ b/甘特圖.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20339"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\annas\MyPython\期末專案\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\b1403\pyhw\期末專案\期末專案\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CDA6A56-AD33-4455-9133-8432269A6324}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19180" windowHeight="6920"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19185" windowHeight="6915" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>爬台灣股票資料</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -34,22 +35,26 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>改變模型或參數看看結果</t>
+    <t>撰寫期末專案報告</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>撰寫期末專案報告</t>
+    <t>撰寫爬蟲程式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>測試不同Model</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="179" formatCode="m/d;@"/>
+    <numFmt numFmtId="176" formatCode="m/d;@"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -66,15 +71,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="新細明體"/>
       <family val="1"/>
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -83,13 +95,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -108,23 +126,32 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -142,6 +169,477 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1390650</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="直線接點 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4946AEA4-04BD-45D8-9D43-BA13803B7310}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9525" y="9525"/>
+          <a:ext cx="1381125" cy="609600"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>819150</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="466794" cy="275909"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="文字方塊 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D075C70B-9074-4A59-97B4-4E2BA3242DE4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="819150" y="104775"/>
+          <a:ext cx="466794" cy="275909"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+            <a:t>日期</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="748923" cy="275909"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="文字方塊 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{420CF3E8-CFAB-4EF4-B45A-684B78ADB7E8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="161925" y="381000"/>
+          <a:ext cx="748923" cy="275909"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+            <a:t>工作項目</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>140969</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="箭號: 左-右雙向 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{98BCD5A2-F68C-4E38-B1D6-1B727CE075D9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1438275" y="723900"/>
+          <a:ext cx="2752725" cy="45719"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftRightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>78106</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="箭號: 左-右雙向 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40B97B10-9A25-461E-ABB3-76020ABED220}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4257675" y="916306"/>
+          <a:ext cx="619125" cy="45719"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftRightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>121919</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="箭號: 左-右雙向 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC21CEEA-CA6C-43A5-9225-CA634C80A970}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4943475" y="1114425"/>
+          <a:ext cx="2771775" cy="45719"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftRightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>78106</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="箭號: 左-右雙向 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91C047A1-0E5A-4894-8E9A-AAEDA40AF314}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7762875" y="1325881"/>
+          <a:ext cx="2076450" cy="45719"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftRightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>121919</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="箭號: 左-右雙向 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{212F83B3-CE3A-43B6-94E9-844E05D099D9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3905250" y="1533525"/>
+          <a:ext cx="8296275" cy="45719"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftRightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -406,160 +904,376 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AD5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AF9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="AF8" sqref="A1:AF8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.36328125" customWidth="1"/>
-    <col min="2" max="30" width="4.6328125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="18.375" customWidth="1"/>
+    <col min="2" max="30" width="4.625" style="1" customWidth="1"/>
+    <col min="31" max="32" width="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.4">
-      <c r="B1" s="1">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A1" s="5"/>
+      <c r="B1" s="6">
         <v>43595</v>
       </c>
-      <c r="C1" s="1">
+      <c r="C1" s="6">
         <v>43596</v>
       </c>
-      <c r="D1" s="1">
+      <c r="D1" s="6">
         <v>43597</v>
       </c>
-      <c r="E1" s="1">
+      <c r="E1" s="6">
         <v>43598</v>
       </c>
-      <c r="F1" s="1">
+      <c r="F1" s="6">
         <v>43599</v>
       </c>
-      <c r="G1" s="1">
+      <c r="G1" s="6">
         <v>43600</v>
       </c>
-      <c r="H1" s="1">
+      <c r="H1" s="6">
         <v>43601</v>
       </c>
-      <c r="I1" s="1">
+      <c r="I1" s="6">
         <v>43602</v>
       </c>
-      <c r="J1" s="1">
+      <c r="J1" s="6">
         <v>43603</v>
       </c>
-      <c r="K1" s="1">
+      <c r="K1" s="6">
         <v>43604</v>
       </c>
-      <c r="L1" s="1">
+      <c r="L1" s="6">
         <v>43605</v>
       </c>
-      <c r="M1" s="1">
+      <c r="M1" s="6">
         <v>43606</v>
       </c>
-      <c r="N1" s="1">
+      <c r="N1" s="6">
         <v>43607</v>
       </c>
-      <c r="O1" s="1">
+      <c r="O1" s="6">
         <v>43608</v>
       </c>
-      <c r="P1" s="1">
+      <c r="P1" s="6">
         <v>43609</v>
       </c>
-      <c r="Q1" s="1">
+      <c r="Q1" s="6">
         <v>43610</v>
       </c>
-      <c r="R1" s="1">
+      <c r="R1" s="6">
         <v>43611</v>
       </c>
-      <c r="S1" s="1">
+      <c r="S1" s="6">
         <v>43612</v>
       </c>
-      <c r="T1" s="1">
+      <c r="T1" s="6">
         <v>43613</v>
       </c>
-      <c r="U1" s="1">
+      <c r="U1" s="6">
         <v>43614</v>
       </c>
-      <c r="V1" s="1">
+      <c r="V1" s="6">
         <v>43615</v>
       </c>
-      <c r="W1" s="1">
+      <c r="W1" s="6">
         <v>43616</v>
       </c>
-      <c r="X1" s="1">
+      <c r="X1" s="6">
         <v>43617</v>
       </c>
-      <c r="Y1" s="1">
+      <c r="Y1" s="6">
         <v>43618</v>
       </c>
-      <c r="Z1" s="1">
+      <c r="Z1" s="6">
         <v>43619</v>
       </c>
-      <c r="AA1" s="1">
+      <c r="AA1" s="6">
         <v>43620</v>
       </c>
-      <c r="AB1" s="1">
+      <c r="AB1" s="6">
         <v>43621</v>
       </c>
-      <c r="AC1" s="1">
+      <c r="AC1" s="6">
         <v>43622</v>
       </c>
-      <c r="AD1" s="1">
+      <c r="AD1" s="6">
         <v>43623</v>
       </c>
+      <c r="AE1" s="6">
+        <v>43624</v>
+      </c>
+      <c r="AF1" s="6">
+        <v>43625</v>
+      </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.4">
-      <c r="A2" t="s">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A2" s="5"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
+      <c r="R2" s="6"/>
+      <c r="S2" s="6"/>
+      <c r="T2" s="6"/>
+      <c r="U2" s="6"/>
+      <c r="V2" s="6"/>
+      <c r="W2" s="6"/>
+      <c r="X2" s="6"/>
+      <c r="Y2" s="6"/>
+      <c r="Z2" s="6"/>
+      <c r="AA2" s="6"/>
+      <c r="AB2" s="6"/>
+      <c r="AC2" s="6"/>
+      <c r="AD2" s="6"/>
+      <c r="AE2" s="6"/>
+      <c r="AF2" s="6"/>
+    </row>
+    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A3" s="5"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="6"/>
+      <c r="R3" s="6"/>
+      <c r="S3" s="6"/>
+      <c r="T3" s="6"/>
+      <c r="U3" s="6"/>
+      <c r="V3" s="6"/>
+      <c r="W3" s="6"/>
+      <c r="X3" s="6"/>
+      <c r="Y3" s="6"/>
+      <c r="Z3" s="6"/>
+      <c r="AA3" s="6"/>
+      <c r="AB3" s="6"/>
+      <c r="AC3" s="6"/>
+      <c r="AD3" s="6"/>
+      <c r="AE3" s="6"/>
+      <c r="AF3" s="6"/>
+    </row>
+    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="7"/>
+      <c r="Q5" s="7"/>
+      <c r="R5" s="7"/>
+      <c r="S5" s="7"/>
+      <c r="T5" s="7"/>
+      <c r="U5" s="7"/>
+      <c r="V5" s="7"/>
+      <c r="W5" s="7"/>
+      <c r="X5" s="7"/>
+      <c r="Y5" s="7"/>
+      <c r="Z5" s="7"/>
+      <c r="AA5" s="7"/>
+      <c r="AB5" s="7"/>
+      <c r="AC5" s="7"/>
+      <c r="AD5" s="7"/>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.4">
-      <c r="A3" t="s">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="7"/>
+      <c r="R6" s="7"/>
+      <c r="S6" s="7"/>
+      <c r="T6" s="7"/>
+      <c r="U6" s="7"/>
+      <c r="V6" s="7"/>
+      <c r="W6" s="7"/>
+      <c r="X6" s="7"/>
+      <c r="Y6" s="7"/>
+      <c r="Z6" s="7"/>
+      <c r="AA6" s="7"/>
+      <c r="AB6" s="7"/>
+      <c r="AC6" s="7"/>
+      <c r="AD6" s="7"/>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.4">
-      <c r="A4" s="2" t="s">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="7"/>
+      <c r="P7" s="7"/>
+      <c r="Q7" s="7"/>
+      <c r="R7" s="7"/>
+      <c r="S7" s="7"/>
+      <c r="T7" s="7"/>
+      <c r="U7" s="7"/>
+      <c r="V7" s="7"/>
+      <c r="W7" s="7"/>
+      <c r="X7" s="7"/>
+      <c r="Y7" s="7"/>
+      <c r="Z7" s="7"/>
+      <c r="AA7" s="7"/>
+      <c r="AB7" s="7"/>
+      <c r="AC7" s="7"/>
+      <c r="AD7" s="7"/>
+    </row>
+    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="O4" s="4"/>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="4"/>
-      <c r="R4" s="4"/>
-      <c r="S4" s="4"/>
-      <c r="T4" s="4"/>
-      <c r="U4" s="4"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="7"/>
+      <c r="Q8" s="7"/>
+      <c r="R8" s="7"/>
+      <c r="S8" s="7"/>
+      <c r="T8" s="7"/>
+      <c r="U8" s="7"/>
+      <c r="V8" s="7"/>
+      <c r="W8" s="7"/>
+      <c r="X8" s="7"/>
+      <c r="Y8" s="7"/>
+      <c r="Z8" s="7"/>
+      <c r="AA8" s="7"/>
+      <c r="AB8" s="7"/>
+      <c r="AC8" s="7"/>
+      <c r="AD8" s="7"/>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.4">
-      <c r="A5" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="V5" s="4"/>
-      <c r="W5" s="4"/>
-      <c r="X5" s="4"/>
-      <c r="Y5" s="4"/>
-      <c r="Z5" s="4"/>
-      <c r="AA5" s="4"/>
-      <c r="AB5" s="4"/>
-      <c r="AC5" s="4"/>
-      <c r="AD5" s="4"/>
+    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="D9" s="2"/>
     </row>
   </sheetData>
+  <mergeCells count="32">
+    <mergeCell ref="AD1:AD3"/>
+    <mergeCell ref="AE1:AE3"/>
+    <mergeCell ref="AF1:AF3"/>
+    <mergeCell ref="X1:X3"/>
+    <mergeCell ref="Y1:Y3"/>
+    <mergeCell ref="Z1:Z3"/>
+    <mergeCell ref="AA1:AA3"/>
+    <mergeCell ref="AB1:AB3"/>
+    <mergeCell ref="AC1:AC3"/>
+    <mergeCell ref="R1:R3"/>
+    <mergeCell ref="S1:S3"/>
+    <mergeCell ref="T1:T3"/>
+    <mergeCell ref="U1:U3"/>
+    <mergeCell ref="V1:V3"/>
+    <mergeCell ref="W1:W3"/>
+    <mergeCell ref="L1:L3"/>
+    <mergeCell ref="M1:M3"/>
+    <mergeCell ref="N1:N3"/>
+    <mergeCell ref="O1:O3"/>
+    <mergeCell ref="P1:P3"/>
+    <mergeCell ref="Q1:Q3"/>
+    <mergeCell ref="F1:F3"/>
+    <mergeCell ref="G1:G3"/>
+    <mergeCell ref="H1:H3"/>
+    <mergeCell ref="I1:I3"/>
+    <mergeCell ref="J1:J3"/>
+    <mergeCell ref="K1:K3"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="C1:C3"/>
+    <mergeCell ref="D1:D3"/>
+    <mergeCell ref="E1:E3"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="A5:A8">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>